--- a/Simulation_Results.xlsx
+++ b/Simulation_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd9393167c7eefc4/Documents/Sensitivity Analysis - Paper 1/Delta-adjusted-sensitivity-analysis/SimulationResults/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd9393167c7eefc4/Documents/Sensitivity Analysis - Paper 1/Sensitivity-Analysis-Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="8_{4E4D6D94-5C6C-4E35-8E9B-2BB75B79FED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7877C5CE-63CF-42F3-87E6-6AD215B0750E}"/>
+  <xr:revisionPtr revIDLastSave="529" documentId="8_{4E4D6D94-5C6C-4E35-8E9B-2BB75B79FED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{210CBFA0-C4AF-4DF5-9504-795D3177B865}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5040" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{130891D4-96F8-423C-AE54-69CF7EEFE102}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{130891D4-96F8-423C-AE54-69CF7EEFE102}"/>
   </bookViews>
   <sheets>
     <sheet name="MCAR Results" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
   <si>
     <t>Analysis</t>
   </si>
@@ -235,19 +235,71 @@
     <t>NULL CASE</t>
   </si>
   <si>
-    <t>Alternative case</t>
-  </si>
-  <si>
     <t xml:space="preserve">In full data, 56.2% were nonresponders </t>
+  </si>
+  <si>
+    <t>Z-stat</t>
+  </si>
+  <si>
+    <t>Mech</t>
+  </si>
+  <si>
+    <t>%TVmis</t>
+  </si>
+  <si>
+    <t>%Ymis</t>
+  </si>
+  <si>
+    <t>Theta-hat</t>
+  </si>
+  <si>
+    <t>%NR</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Test stat</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Type1 Error</t>
+  </si>
+  <si>
+    <t>Observed distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing distribution </t>
+  </si>
+  <si>
+    <t>Tailoring Variable</t>
+  </si>
+  <si>
+    <t>Y (follow-up 1)</t>
+  </si>
+  <si>
+    <t>t statistic</t>
+  </si>
+  <si>
+    <t>Comparing observed and missing distibrution (N=10000, 20% missingness)</t>
+  </si>
+  <si>
+    <t>&lt;.0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -306,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -324,6 +376,11 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,13 +452,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>549401</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>50004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -1311,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2664496-CC29-46A1-8FF6-754143E81584}">
-  <dimension ref="A2:P21"/>
+  <dimension ref="A2:Q21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D17"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1327,16 +1384,16 @@
     <col min="6" max="6" width="6.77734375" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" customWidth="1"/>
-    <col min="14" max="14" width="8.21875" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1358,26 +1415,26 @@
       <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1399,26 +1456,26 @@
       <c r="I3">
         <v>7.1827100000000005E-2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.1464242</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.13513800000000001</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-5.6430719999999998E-3</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>7.1512690000000004E-2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>591</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1440,34 +1497,34 @@
       <c r="I4">
         <v>6.2773480000000006E-2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.1336234</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.1124486</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-1.058739E-2</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.34752959999999999</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>591</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>40</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1496,22 +1553,25 @@
         <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1539,26 +1599,30 @@
       <c r="I10" s="9">
         <v>-4.4693950000000003E-2</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="9">
+        <f>I10/(F10/SQRT(1000))</f>
+        <v>-19.473678285546697</v>
+      </c>
+      <c r="K10" s="12">
         <v>0.9</v>
       </c>
-      <c r="K10" s="12">
+      <c r="L10" s="12">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="L10" s="12">
+      <c r="M10" s="12">
         <v>8.6008459999999995E-2</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <v>591</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="10">
         <v>1000</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1586,23 +1650,27 @@
       <c r="I11" s="9">
         <v>-5.7349820000000003E-2</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="9">
+        <f t="shared" ref="J11:J17" si="0">I11/(F11/SQRT(1000))</f>
+        <v>-20.37738243375215</v>
+      </c>
+      <c r="K11" s="12">
         <v>0.90600000000000003</v>
       </c>
-      <c r="K11" s="12">
+      <c r="L11" s="12">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="L11" s="12">
+      <c r="M11" s="12">
         <v>6.3840949999999994E-2</v>
       </c>
-      <c r="M11" s="10">
+      <c r="N11" s="10">
         <v>591</v>
       </c>
-      <c r="N11" s="10">
+      <c r="O11" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
@@ -1630,23 +1698,27 @@
       <c r="I12" s="9">
         <v>-9.4097650000000005E-2</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>-40.391100914104193</v>
+      </c>
+      <c r="K12" s="12">
         <v>0.752</v>
       </c>
-      <c r="K12" s="12">
+      <c r="L12" s="12">
         <v>0.23799999999999999</v>
       </c>
-      <c r="L12" s="12">
+      <c r="M12" s="12">
         <v>8.5683590000000004E-2</v>
       </c>
-      <c r="M12" s="11">
+      <c r="N12" s="11">
         <v>591</v>
       </c>
-      <c r="N12" s="11">
+      <c r="O12" s="11">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1674,23 +1746,27 @@
       <c r="I13" s="9">
         <v>-0.12120649999999999</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>-41.004726672554064</v>
+      </c>
+      <c r="K13" s="12">
         <v>0.72699999999999998</v>
       </c>
-      <c r="K13" s="12">
+      <c r="L13" s="12">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L13" s="12">
+      <c r="M13" s="12">
         <v>6.2510999999999997E-2</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>591</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1718,23 +1794,27 @@
       <c r="I14" s="9">
         <v>-8.6217800000000008E-3</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="9">
+        <f t="shared" si="0"/>
+        <v>-4.0984886755895467</v>
+      </c>
+      <c r="K14" s="12">
         <v>0.95099999999999996</v>
       </c>
-      <c r="K14" s="12">
+      <c r="L14" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L14" s="16">
+      <c r="M14" s="16">
         <v>0.35294989999999998</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>591</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1762,23 +1842,27 @@
       <c r="I15" s="9">
         <v>-9.1911400000000004E-3</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="9">
+        <f t="shared" si="0"/>
+        <v>-4.082741784242816</v>
+      </c>
+      <c r="K15" s="12">
         <v>0.97099999999999997</v>
       </c>
-      <c r="K15" s="12">
+      <c r="L15" s="12">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="L15" s="16">
+      <c r="M15" s="16">
         <v>0.35528559999999998</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>591</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1806,23 +1890,27 @@
       <c r="I16" s="9">
         <v>-2.6840989999999999E-2</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="9">
+        <f t="shared" si="0"/>
+        <v>-12.958301497434539</v>
+      </c>
+      <c r="K16" s="12">
         <v>0.95399999999999996</v>
       </c>
-      <c r="K16" s="12">
+      <c r="L16" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="L16" s="16">
+      <c r="M16" s="16">
         <v>0.33659919999999999</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>591</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1850,23 +1938,27 @@
       <c r="I17" s="9">
         <v>-4.2292160000000002E-2</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="9">
+        <f t="shared" si="0"/>
+        <v>-19.538731972123642</v>
+      </c>
+      <c r="K17" s="12">
         <v>0.95299999999999996</v>
       </c>
-      <c r="K17" s="12">
+      <c r="L17" s="12">
         <v>3.9E-2</v>
       </c>
-      <c r="L17" s="16">
+      <c r="M17" s="16">
         <v>0.33029629999999999</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>591</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F21">
         <f xml:space="preserve"> 0.009/(0.067/SQRT(1000))</f>
         <v>4.2478356629127481</v>
@@ -1881,21 +1973,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B75F2C-032D-4418-ABC5-157716C426FA}">
-  <dimension ref="A2:P13"/>
+  <dimension ref="A2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.44140625" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1958,7 +2053,7 @@
         <v>48</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -2095,9 +2190,474 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>65</v>
+    <row r="17" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="17">
+        <v>3.553796E-4</v>
+      </c>
+      <c r="F18" s="9">
+        <v>3.1694760000000002E-2</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.35457250000000001</v>
+      </c>
+      <c r="H18" s="9">
+        <v>-6.1766349999999998E-2</v>
+      </c>
+      <c r="I18" s="9">
+        <v>6.2477110000000002E-2</v>
+      </c>
+      <c r="J18" s="19">
+        <v>3.553796E-4</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="L18" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0.56330400000000003</v>
+      </c>
+      <c r="N18" s="20">
+        <v>1000</v>
+      </c>
+      <c r="O18" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.22656699999999999</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.23877699999999999</v>
+      </c>
+      <c r="E19" s="17">
+        <v>9.8003210000000007E-4</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3.8407429999999999E-2</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.80691000000000002</v>
+      </c>
+      <c r="H19" s="9">
+        <v>-7.4298520000000007E-2</v>
+      </c>
+      <c r="I19" s="9">
+        <v>7.6258590000000001E-2</v>
+      </c>
+      <c r="J19" s="19">
+        <v>9.8003210000000007E-4</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="L19" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0.43604599999999999</v>
+      </c>
+      <c r="N19" s="20">
+        <v>1000</v>
+      </c>
+      <c r="O19" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.40557599999999999</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.41240300000000002</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1.294798E-3</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4.5452100000000002E-2</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0.90084070000000005</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-8.7791309999999997E-2</v>
+      </c>
+      <c r="I20" s="9">
+        <v>9.03809E-2</v>
+      </c>
+      <c r="J20" s="19">
+        <v>1.294798E-3</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0.33465299999999998</v>
+      </c>
+      <c r="N20" s="20">
+        <v>1000</v>
+      </c>
+      <c r="O20" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.22441800000000001</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.23846300000000001</v>
+      </c>
+      <c r="E21" s="17">
+        <v>3.863982E-4</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3.712157E-2</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0.32916129999999999</v>
+      </c>
+      <c r="H21" s="9">
+        <v>-7.2371870000000005E-2</v>
+      </c>
+      <c r="I21" s="9">
+        <v>7.3144669999999995E-2</v>
+      </c>
+      <c r="J21" s="19">
+        <v>3.863982E-4</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.42810500000000001</v>
+      </c>
+      <c r="N21" s="20">
+        <v>1000</v>
+      </c>
+      <c r="O21" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.40475699999999998</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.41155900000000001</v>
+      </c>
+      <c r="E22" s="17">
+        <v>-2.4652469999999998E-3</v>
+      </c>
+      <c r="F22" s="9">
+        <v>4.5475160000000001E-2</v>
+      </c>
+      <c r="G22" s="18">
+        <v>-1.7142980000000001</v>
+      </c>
+      <c r="H22" s="9">
+        <v>-9.1596549999999999E-2</v>
+      </c>
+      <c r="I22" s="9">
+        <v>8.6666060000000003E-2</v>
+      </c>
+      <c r="J22" s="19">
+        <v>-2.4652469999999998E-3</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="L22" s="9">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.32413399999999998</v>
+      </c>
+      <c r="N22" s="20">
+        <v>1000</v>
+      </c>
+      <c r="O22" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0.22719200000000001</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.23888000000000001</v>
+      </c>
+      <c r="E23" s="17">
+        <v>4.793202E-4</v>
+      </c>
+      <c r="F23" s="17">
+        <v>4.035354E-2</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0.26560070000000002</v>
+      </c>
+      <c r="H23" s="17">
+        <v>-7.861361E-2</v>
+      </c>
+      <c r="I23" s="17">
+        <v>7.9572249999999997E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4.793202E-4</v>
+      </c>
+      <c r="K23">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="L23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.56237320000000002</v>
+      </c>
+      <c r="N23">
+        <v>1000</v>
+      </c>
+      <c r="O23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0.22486999999999999</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.237292</v>
+      </c>
+      <c r="E24" s="17">
+        <v>-3.9578760000000003E-4</v>
+      </c>
+      <c r="F24" s="17">
+        <v>4.0290960000000001E-2</v>
+      </c>
+      <c r="G24" s="19">
+        <v>-0.21965419999999999</v>
+      </c>
+      <c r="H24" s="17">
+        <v>-7.9366069999999997E-2</v>
+      </c>
+      <c r="I24" s="17">
+        <v>7.8574489999999997E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-3.9578760000000003E-4</v>
+      </c>
+      <c r="K24">
+        <v>0.96</v>
+      </c>
+      <c r="L24">
+        <v>0.03</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.54951240000000001</v>
+      </c>
+      <c r="N24">
+        <v>1000</v>
+      </c>
+      <c r="O24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32">
+        <v>1.23</v>
+      </c>
+      <c r="D32">
+        <v>1.36</v>
+      </c>
+      <c r="E32">
+        <v>-5.0599999999999996</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="21">
+        <v>1.01</v>
+      </c>
+      <c r="D33" s="21">
+        <v>1.03</v>
+      </c>
+      <c r="E33" s="21">
+        <v>-0.68110000000000004</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36">
+        <v>1.26</v>
+      </c>
+      <c r="D36">
+        <v>1.24</v>
+      </c>
+      <c r="E36">
+        <v>-0.6</v>
+      </c>
+      <c r="F36">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="21">
+        <v>1.02</v>
+      </c>
+      <c r="D37" s="21">
+        <v>1.02</v>
+      </c>
+      <c r="E37" s="21">
+        <v>-0.1</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
